--- a/data/income_statement/3digits/total/329_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/329_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>329-Manufacturing n.e.c.</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>329-Manufacturing n.e.c.</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>994149.64657</v>
@@ -968,31 +874,36 @@
         <v>2073411.06012</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2286633.07584</v>
+        <v>2308563.71234</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2158261.93227</v>
+        <v>2450399.7864</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3001384.22812</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3771981.47291</v>
+        <v>3773821.18327</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4500784.18594</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4548020.98627</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6023504.566</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>863292.3827400001</v>
+        <v>863292.38274</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>931109.7059100001</v>
+        <v>931109.70591</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>1228062.49751</v>
@@ -1007,25 +918,30 @@
         <v>1775184.56579</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1960010.50253</v>
+        <v>1978794.65727</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1827756.04058</v>
+        <v>2036406.60245</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2499466.07989</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3088937.64801</v>
+        <v>3090756.85109</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3659142.586610001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3702537.58958</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4751333.305</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>118006.22335</v>
@@ -1046,10 +962,10 @@
         <v>281773.74467</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>308635.25965</v>
+        <v>311674.80044</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>307436.1134</v>
+        <v>390657.81005</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>469991.55015</v>
@@ -1058,13 +974,18 @@
         <v>647365.61954</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>800653.27948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>803675.3703000001</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1212015.754</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>12851.04048</v>
@@ -1085,28 +1006,33 @@
         <v>16452.74966</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>17987.31366</v>
+        <v>18094.25463</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>23069.77829</v>
+        <v>23335.3739</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>31926.59808</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>35678.20536</v>
+        <v>35698.71264</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>40988.31985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>41808.02639</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>60155.507</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>55379.47388</v>
+        <v>55379.47388000001</v>
       </c>
       <c r="D9" s="47" t="n">
         <v>59675.02851</v>
@@ -1124,25 +1050,30 @@
         <v>88788.10881000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>129255.27069</v>
+        <v>129399.30124</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>123807.35627</v>
+        <v>125582.99076</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>142366.99145</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>191566.80818</v>
+        <v>191626.84683</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>229807.24918</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>230403.72992</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>249422.165</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>13825.85782</v>
@@ -1163,25 +1094,30 @@
         <v>26813.87963</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>31588.92996</v>
+        <v>31724.67449</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>37788.74496</v>
+        <v>38745.6061</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>38394.87499</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>51012.47863000001</v>
+        <v>51055.78408</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>56111.05849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56700.78401</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>101976.779</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>39165.66154</v>
@@ -1193,7 +1129,7 @@
         <v>48469.51726</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>51084.34988</v>
+        <v>51084.34988000001</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>59317.19797</v>
@@ -1202,10 +1138,10 @@
         <v>60596.88958</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>96480.36227999999</v>
+        <v>96488.6483</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>84702.26946000001</v>
+        <v>84702.26946</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>101175.02134</v>
@@ -1216,14 +1152,19 @@
       <c r="M11" s="48" t="n">
         <v>168949.31106</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>131312.431</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2387.954520000001</v>
+        <v>2387.95452</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>936.08713</v>
@@ -1244,28 +1185,33 @@
         <v>1185.97845</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1316.34185</v>
+        <v>2135.1152</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>2797.09512</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>3377.92694</v>
+        <v>3394.66014</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>4746.879629999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>4753.63485</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>16132.955</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>938770.17269</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>998523.5879100001</v>
+        <v>998523.58791</v>
       </c>
       <c r="E13" s="47" t="n">
         <v>1334821.44131</v>
@@ -1280,25 +1226,30 @@
         <v>1984622.95131</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2157377.80515</v>
+        <v>2179164.411100001</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2034454.576</v>
+        <v>2324816.79564</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>2859017.23667</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3580414.66473</v>
+        <v>3582194.33644</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4270976.93676</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4317617.25635</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>5774082.401</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>674037.8086699999</v>
@@ -1319,25 +1270,30 @@
         <v>1451624.19674</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1554172.78714</v>
+        <v>1569887.09202</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1497553.64786</v>
+        <v>1678369.7732</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2108910.90943</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2608377.1183</v>
+        <v>2609744.1003</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3126467.34536</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3160315.37976</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4051195.35</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>490564.08027</v>
@@ -1346,7 +1302,7 @@
         <v>514049.13083</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>689783.7063199999</v>
+        <v>689783.70632</v>
       </c>
       <c r="F15" s="48" t="n">
         <v>774337.64412</v>
@@ -1358,25 +1314,30 @@
         <v>1018100.19078</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1129658.19705</v>
+        <v>1141117.97893</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1034413.32177</v>
+        <v>1215229.44711</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1563610.8571</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1989081.54296</v>
+        <v>1990414.88557</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2392474.13104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2411733.34523</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2992425.571</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>171518.96012</v>
@@ -1397,7 +1358,7 @@
         <v>400888.57786</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>391415.12076</v>
+        <v>395654.29723</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>424244.70711</v>
@@ -1406,19 +1367,24 @@
         <v>502973.81492</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>567350.282</v>
+        <v>567383.92139</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>690422.0498500001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>704947.93054</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>994323.002</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7884.539709999999</v>
+        <v>7884.539710000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>12453.15959</v>
@@ -1448,13 +1414,18 @@
         <v>35792.23479</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>35638.92968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>35701.8692</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>53181.497</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>4070.22857</v>
@@ -1463,10 +1434,10 @@
         <v>5203.47356</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5686.837489999998</v>
+        <v>5686.837489999999</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>7216.688700000001</v>
+        <v>7216.6887</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>7431.88564</v>
@@ -1475,7 +1446,7 @@
         <v>10594.3942</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>10674.65613</v>
+        <v>10690.00266</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>10435.69011</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>7932.23479</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>11265.28</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>264732.36402</v>
@@ -1514,25 +1490,30 @@
         <v>532998.75457</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>603205.01801</v>
+        <v>609277.3190799999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>536900.92814</v>
+        <v>646447.0224400001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>750106.32724</v>
+        <v>750106.3272400001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>972037.54643</v>
+        <v>972450.2361399999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1144509.5914</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1157301.87659</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1722887.051</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>174970.44503</v>
@@ -1547,31 +1528,36 @@
         <v>253278.97038</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>282902.51795</v>
+        <v>282902.5179500001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>342923.82786</v>
+        <v>342924.52366</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>384044.78783</v>
+        <v>387610.64594</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>371373.26859</v>
+        <v>438782.21223</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>491589.2754500001</v>
+        <v>491589.27545</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>597112.61513</v>
+        <v>597794.30461</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>722870.59766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>731690.01055</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>878895.671</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>452.36248</v>
@@ -1580,7 +1566,7 @@
         <v>1205.66465</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>659.60955</v>
+        <v>659.6095499999999</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>28839.62443</v>
@@ -1589,13 +1575,13 @@
         <v>1141.85965</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>682.5994400000001</v>
+        <v>682.59944</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>1678.65807</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>757.6997700000001</v>
+        <v>757.6997699999999</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>2308.52584</v>
@@ -1604,16 +1590,21 @@
         <v>2697.72371</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>4764.649760000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>4764.649759999999</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>6156.74</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>92814.75786999999</v>
+        <v>92814.75787</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>91839.02031000001</v>
@@ -1631,34 +1622,39 @@
         <v>200400.1963</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>225126.06806</v>
+        <v>226937.83556</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>205786.55589</v>
+        <v>257527.56891</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>286184.26286</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>338576.8176</v>
+        <v>338594.13836</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>421662.97739</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>423665.174</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>486362.759</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>81703.32467999999</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>84272.8817</v>
+        <v>84272.88169999998</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>97699.9369</v>
+        <v>97699.93689999999</v>
       </c>
       <c r="F23" s="48" t="n">
         <v>109895.05588</v>
@@ -1667,31 +1663,36 @@
         <v>121595.949</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>141841.03212</v>
+        <v>141841.72792</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>157240.0617</v>
+        <v>158994.15231</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>164829.01293</v>
+        <v>180496.94355</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>203096.48675</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>255838.07382</v>
+        <v>256502.44254</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>296442.97051</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>303260.1867899999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>386376.172</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>89761.91899000001</v>
+        <v>89761.91898999999</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>75977.24940999999</v>
@@ -1706,28 +1707,33 @@
         <v>149738.27335</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>190074.92671</v>
+        <v>190074.23091</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>219160.23018</v>
+        <v>221666.67314</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>165527.65955</v>
+        <v>207664.81021</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>258517.05179</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>374924.9312999999</v>
+        <v>374655.9315300001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>421638.99374</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>425611.8660399999</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>843991.38</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>25172.60095</v>
@@ -1748,25 +1754,30 @@
         <v>49482.83377</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>70695.69581</v>
+        <v>72147.83511</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>49818.36872999999</v>
+        <v>61020.25117999999</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>73173.46065000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>179946.96768</v>
+        <v>179964.80182</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>146647.58349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>148732.13595</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>231283.298</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>728.0510599999999</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>284.84218</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>2425.22356</v>
@@ -1862,28 +1883,33 @@
         <v>4081.17863</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>6731.146060000001</v>
+        <v>6731.14606</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>8709.10145</v>
+        <v>8715.231629999998</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>4737.59633</v>
+        <v>8495.897779999999</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>11494.90379</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>12230.50919</v>
+        <v>12235.19655</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>15673.96074</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>16953.9446</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>20704.636</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1550.16747</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>2529.02881</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>3482.025</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>271.1374</v>
@@ -1943,7 +1974,7 @@
         <v>437.12142</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>115.43537</v>
+        <v>117.43537</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>12.86918</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>264.90843</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>600.236</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>40.26356</v>
@@ -1970,7 +2006,7 @@
         <v>26.12779</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>95.21633</v>
+        <v>95.21632999999999</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>99.66604999999998</v>
@@ -1994,13 +2030,18 @@
         <v>1154.23917</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>7613.80449</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>1176.15565</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>3298.476</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>12561.29431</v>
@@ -2021,25 +2062,30 @@
         <v>26600.03045</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>44730.73873</v>
+        <v>46070.2756</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>30643.88783</v>
+        <v>35842.36801</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>40687.0904</v>
+        <v>40687.09040000001</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>133193.03149</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>91971.39144999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>98735.89099000001</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>172715.439</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>67.40186</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>1449.59276</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2824.879</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2111,13 +2162,18 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>1024.79789</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>5.46135</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>5.577</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>7529.06173</v>
@@ -2138,25 +2194,30 @@
         <v>14911.79785</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>15883.33297</v>
+        <v>15987.80522</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>13400.22649</v>
+        <v>15645.32731</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>18287.04266</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>30581.5389</v>
+        <v>30594.68568</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25835.25674</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>27332.31118</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>27651.155</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>20556.53016</v>
@@ -2177,25 +2238,30 @@
         <v>33816.48933</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>51755.03739</v>
+        <v>54059.8602</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>40298.51172</v>
+        <v>43693.39221</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>48367.69183</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>153801.171</v>
+        <v>153859.1529</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>121996.84835</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>123429.38992</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>164951.255</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>980.55226</v>
@@ -2216,10 +2282,10 @@
         <v>827.0914799999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>660.5554400000001</v>
+        <v>660.55544</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>956.1774099999999</v>
+        <v>956.17741</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>1168.61392</v>
@@ -2228,13 +2294,18 @@
         <v>2165.37076</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6538.26246</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6538.61971</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4234.546</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>2923.29568</v>
@@ -2255,25 +2326,30 @@
         <v>3591.00371</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>4680.89929</v>
+        <v>4749.0105</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5081.300119999999</v>
+        <v>5884.34869</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>6633.278009999999</v>
+        <v>6633.27801</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>8707.58755</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>6885.78858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>6885.788579999999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>13432.082</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>6.01843</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>75.75555</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>340.435</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>14293.26807</v>
@@ -2333,28 +2414,33 @@
         <v>25496.10776</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>39697.29606999999</v>
+        <v>41934.00766999999</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>28392.41764</v>
+        <v>30984.24956</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>36304.8985</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>130465.02693</v>
+        <v>130478.41114</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>93629.66243000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>93976.54406</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>136621.252</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>70.87595999999999</v>
+        <v>70.87596000000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>93.66613000000001</v>
@@ -2384,13 +2470,18 @@
         <v>927.8023499999998</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>3028.41908</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>4113.619259999999</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>3844.364</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>2282.51976</v>
@@ -2456,22 +2552,27 @@
         <v>5329.20462</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>3749.305550000001</v>
+        <v>3749.30555</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>11464.41127</v>
+        <v>11509.00896</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11838.96025</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>11839.06276</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6478.576</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>27711.89912999999</v>
+        <v>27711.89913</v>
       </c>
       <c r="D44" s="47" t="n">
         <v>19997.98393</v>
@@ -2489,25 +2590,30 @@
         <v>48063.42066</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>65864.73031</v>
+        <v>66523.15049</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>78714.62862999999</v>
+        <v>78705.06473</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>94868.28000999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>166560.91937</v>
+        <v>166576.91248</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>178680.20485</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>180289.49078</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>140131.007</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>27130.1835</v>
@@ -2525,34 +2631,39 @@
         <v>29105.45941</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>47531.30179</v>
+        <v>47531.30178999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>63695.22267999999</v>
+        <v>64353.64286</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>71233.24677</v>
+        <v>71223.68287</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>93810.01759</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>161426.56643</v>
+        <v>161442.55954</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>174642.58316</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>176251.86909</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>132871.48</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>581.7156299999999</v>
+        <v>581.71563</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>697.3745699999999</v>
+        <v>697.3745700000001</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>1221.93052</v>
@@ -2576,16 +2687,21 @@
         <v>1058.26242</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>5134.35294</v>
+        <v>5134.352940000001</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>4037.621689999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4037.62169</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>7259.527</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>66666.09065000001</v>
@@ -2603,28 +2719,33 @@
         <v>121048.39328</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>157677.85049</v>
+        <v>157677.15469</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>172236.15829</v>
+        <v>173231.49756</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>96332.88793000001</v>
+        <v>146286.60445</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>188454.5406</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>234509.80861</v>
+        <v>234184.66797</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>267609.52403</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>270625.12129</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>770192.416</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>7520.8975</v>
@@ -2639,31 +2760,36 @@
         <v>14609.77022</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>46562.19498000001</v>
+        <v>46562.19498</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7292.084229999999</v>
+        <v>7292.08423</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>60252.53946000001</v>
+        <v>60376.76029999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>9607.718510000001</v>
+        <v>9633.140019999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>11593.05401</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>13875.52762</v>
+        <v>13875.70457</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>27952.54595</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>28004.66894</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>28760.908</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>109.63242</v>
@@ -2698,17 +2824,22 @@
       <c r="M49" s="48" t="n">
         <v>924.74221</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>1.715</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7411.26508</v>
+        <v>7411.265080000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>5586.948300000001</v>
+        <v>5586.9483</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>14296.46995</v>
@@ -2723,25 +2854,30 @@
         <v>7180.545109999999</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>60165.87711</v>
+        <v>60290.09795</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>9572.659460000001</v>
+        <v>9598.080969999999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>11542.49598</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>13866.55583</v>
+        <v>13866.73278</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>27027.80374</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>27079.92673</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>28759.193</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>13893.89337</v>
@@ -2756,31 +2892,36 @@
         <v>7286.75102</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5968.335029999999</v>
+        <v>5968.33503</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>13665.65763</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20718.16012</v>
+        <v>20880.14096</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>35083.00595999999</v>
+        <v>35182.25559</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>11629.23631</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>46313.91762</v>
+        <v>46404.29716</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>29613.95963</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>31968.94562</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>29726.659</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>325.09888</v>
@@ -2810,16 +2951,21 @@
         <v>1971.00489</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>2274.83041</v>
+        <v>2279.81163</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>2364.21463</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>1592.96</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>105.32237</v>
@@ -2831,7 +2977,7 @@
         <v>245.11725</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>318.7643899999999</v>
+        <v>318.76439</v>
       </c>
       <c r="G53" s="48" t="n">
         <v>375.1358</v>
@@ -2852,13 +2998,18 @@
         <v>3894.51664</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>711.5995600000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>712.1229700000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>383.928</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>13463.47212</v>
@@ -2879,25 +3030,30 @@
         <v>12585.59725</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>8963.92864</v>
+        <v>9125.90948</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>31669.26514</v>
+        <v>31768.51476999999</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>8519.438539999999</v>
+        <v>8519.438540000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>40144.57057</v>
+        <v>40229.96889</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>26538.14544</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>28892.60802</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>27749.771</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>60293.09478</v>
@@ -2906,7 +3062,7 @@
         <v>55746.18931</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>76991.66761000002</v>
+        <v>76991.66761</v>
       </c>
       <c r="F55" s="47" t="n">
         <v>107737.22758</v>
@@ -2915,28 +3071,33 @@
         <v>161642.25323</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>151304.27709</v>
+        <v>151303.58129</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>211770.53763</v>
+        <v>212728.1169</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>70857.60048000001</v>
+        <v>120737.48888</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>188418.3583</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>202071.41861</v>
+        <v>201656.07538</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>265948.11035</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>266660.84461</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>769226.665</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>15118.5118</v>
@@ -2957,31 +3118,36 @@
         <v>31742.10637</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>34794.78685</v>
+        <v>35014.40609</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>22541.71705</v>
+        <v>32560.71977</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>36926.56396</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>46960.45466999999</v>
+        <v>46962.39478</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>54290.81607999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>54958.5556</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>148563.142</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>45174.58298000001</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>43231.37022999999</v>
+        <v>43231.37023000001</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>56353.27103</v>
@@ -2993,25 +3159,28 @@
         <v>135510.41311</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>119562.17072</v>
+        <v>119561.47492</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>176975.75078</v>
+        <v>177713.71081</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>48315.88343</v>
+        <v>88176.76910999999</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>151491.79434</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>155110.96394</v>
+        <v>154693.6806</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>211657.29427</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>211702.28901</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>620663.523</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>618</v>
@@ -3047,25 +3219,28 @@
         <v>569</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>554</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>543</v>
+        <v>599</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>618</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>